--- a/CPLEX.xlsx
+++ b/CPLEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
   <si>
     <t>Filename</t>
   </si>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1973,49 +1973,81 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79">
-        <v>685</v>
-      </c>
-      <c r="C79">
-        <v>397</v>
-      </c>
-      <c r="D79">
-        <v>78</v>
-      </c>
-      <c r="E79">
-        <v>136</v>
-      </c>
-      <c r="F79">
-        <v>78</v>
-      </c>
-    </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="C81">
-        <v>500</v>
+        <v>397</v>
       </c>
       <c r="D81">
         <v>78</v>
       </c>
       <c r="E81">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F81">
         <v>78</v>
       </c>
       <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <v>2102.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82">
+        <v>685</v>
+      </c>
+      <c r="C82">
+        <v>397</v>
+      </c>
+      <c r="D82">
+        <v>78</v>
+      </c>
+      <c r="E82">
+        <v>136</v>
+      </c>
+      <c r="F82">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s">
         <v>19</v>
       </c>
-      <c r="H81">
+      <c r="H82">
+        <v>-302.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84">
+        <v>715</v>
+      </c>
+      <c r="C84">
+        <v>500</v>
+      </c>
+      <c r="D84">
+        <v>78</v>
+      </c>
+      <c r="E84">
+        <v>113</v>
+      </c>
+      <c r="F84">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84">
         <v>1800</v>
       </c>
     </row>
